--- a/data/mall-cloud-alibaba/coupon-common_structure.xlsx
+++ b/data/mall-cloud-alibaba/coupon-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="291">
   <si>
     <t>Class Name</t>
   </si>
@@ -612,72 +612,72 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
-    <t>private</t>
+    <t>clickCount</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>pic</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>orderCount</t>
   </si>
   <si>
-    <t>clickCount</t>
+    <t>name</t>
   </si>
   <si>
     <t>sort</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>pic</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>startTime</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>couponId</t>
   </si>
   <si>
     <t>parentCategoryName</t>
   </si>
   <si>
-    <t>couponId</t>
+    <t>productCategoryName</t>
   </si>
   <si>
     <t>productCategoryId</t>
   </si>
   <si>
-    <t>productCategoryName</t>
+    <t>productRelationList</t>
+  </si>
+  <si>
+    <t>categoryRelationList</t>
   </si>
   <si>
     <t>coupon</t>
   </si>
   <si>
-    <t>productRelationList</t>
-  </si>
-  <si>
-    <t>categoryRelationList</t>
-  </si>
-  <si>
     <t>productId</t>
   </si>
   <si>
@@ -687,115 +687,115 @@
     <t>productName</t>
   </si>
   <si>
+    <t>flashPromotionPrice</t>
+  </si>
+  <si>
+    <t>flashPromotionCount</t>
+  </si>
+  <si>
+    <t>flashPromotionSessionId</t>
+  </si>
+  <si>
+    <t>flashPromotionId</t>
+  </si>
+  <si>
     <t>flashPromotionLimit</t>
   </si>
   <si>
-    <t>flashPromotionCount</t>
-  </si>
-  <si>
-    <t>flashPromotionId</t>
-  </si>
-  <si>
-    <t>flashPromotionPrice</t>
-  </si>
-  <si>
-    <t>flashPromotionSessionId</t>
-  </si>
-  <si>
     <t>recommendStatus</t>
   </si>
   <si>
+    <t>getType</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
     <t>useTime</t>
   </si>
   <si>
+    <t>couponCode</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>memberNickname</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
     <t>orderId</t>
   </si>
   <si>
-    <t>orderSn</t>
-  </si>
-  <si>
-    <t>couponCode</t>
-  </si>
-  <si>
-    <t>getType</t>
-  </si>
-  <si>
     <t>useStatus</t>
   </si>
   <si>
-    <t>createTime</t>
-  </si>
-  <si>
-    <t>memberNickname</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
     <t>subjectName</t>
   </si>
   <si>
     <t>subjectId</t>
   </si>
   <si>
+    <t>brandId</t>
+  </si>
+  <si>
     <t>brandName</t>
   </si>
   <si>
-    <t>brandId</t>
+    <t>count</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>memberLevel</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>useCount</t>
+  </si>
+  <si>
+    <t>minPoint</t>
   </si>
   <si>
     <t>useType</t>
   </si>
   <si>
-    <t>count</t>
+    <t>code</t>
   </si>
   <si>
     <t>enableTime</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>useCount</t>
-  </si>
-  <si>
-    <t>memberLevel</t>
-  </si>
-  <si>
     <t>publishCount</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>receiveCount</t>
   </si>
   <si>
     <t>perLimit</t>
   </si>
   <si>
-    <t>minPoint</t>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
   <si>
     <t>startDate</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
     <t>memberPhone</t>
   </si>
   <si>
+    <t>sendTime</t>
+  </si>
+  <si>
     <t>subscribeTime</t>
-  </si>
-  <si>
-    <t>sendTime</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -6917,7 +6917,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7940,10 +7940,10 @@
         <v>116</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94">
@@ -7951,7 +7951,7 @@
         <v>116</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>282</v>
@@ -7962,7 +7962,7 @@
         <v>116</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>282</v>
@@ -7973,7 +7973,7 @@
         <v>116</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>282</v>
@@ -7984,7 +7984,7 @@
         <v>116</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>282</v>
@@ -7995,7 +7995,7 @@
         <v>116</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>282</v>
@@ -8006,7 +8006,7 @@
         <v>116</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>282</v>
@@ -8017,7 +8017,7 @@
         <v>116</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>282</v>
@@ -8028,7 +8028,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>282</v>
@@ -8039,7 +8039,7 @@
         <v>116</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>282</v>
@@ -8050,7 +8050,7 @@
         <v>116</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>282</v>
@@ -8061,7 +8061,7 @@
         <v>116</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>282</v>
@@ -8072,7 +8072,7 @@
         <v>116</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>282</v>
@@ -8083,7 +8083,7 @@
         <v>116</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>282</v>
@@ -8094,7 +8094,7 @@
         <v>116</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>282</v>
@@ -8105,7 +8105,7 @@
         <v>116</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>282</v>
@@ -8116,7 +8116,7 @@
         <v>116</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>282</v>
@@ -8127,7 +8127,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>282</v>
@@ -8138,7 +8138,7 @@
         <v>116</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>282</v>
@@ -8149,7 +8149,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>282</v>
@@ -8160,7 +8160,7 @@
         <v>116</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>282</v>
@@ -8171,7 +8171,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>282</v>
@@ -8182,21 +8182,21 @@
         <v>116</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117">
@@ -8204,10 +8204,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118">
@@ -8215,7 +8215,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>282</v>
@@ -8226,7 +8226,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>282</v>
@@ -8237,7 +8237,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>282</v>
@@ -8248,7 +8248,7 @@
         <v>118</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>282</v>
@@ -8259,7 +8259,7 @@
         <v>118</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>282</v>
@@ -8270,7 +8270,7 @@
         <v>118</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>282</v>
@@ -8281,7 +8281,7 @@
         <v>118</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>282</v>
@@ -8292,7 +8292,7 @@
         <v>118</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>282</v>
@@ -8303,7 +8303,7 @@
         <v>118</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>282</v>
@@ -8314,21 +8314,21 @@
         <v>118</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129">
@@ -8336,10 +8336,10 @@
         <v>124</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130">
@@ -8347,7 +8347,7 @@
         <v>124</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>282</v>
@@ -8358,7 +8358,7 @@
         <v>124</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>282</v>
@@ -8369,7 +8369,7 @@
         <v>124</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>282</v>
@@ -8380,7 +8380,7 @@
         <v>124</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>282</v>
@@ -8391,7 +8391,7 @@
         <v>124</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>282</v>
@@ -8402,7 +8402,7 @@
         <v>124</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>282</v>
@@ -8413,7 +8413,7 @@
         <v>124</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>282</v>
@@ -8424,7 +8424,7 @@
         <v>124</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>282</v>
@@ -8435,7 +8435,7 @@
         <v>124</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>282</v>
@@ -8446,21 +8446,21 @@
         <v>124</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141">
@@ -8468,10 +8468,10 @@
         <v>75</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142">
@@ -8479,7 +8479,7 @@
         <v>75</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>282</v>
@@ -8490,7 +8490,7 @@
         <v>75</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>282</v>
@@ -8501,7 +8501,7 @@
         <v>75</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>282</v>
@@ -8512,7 +8512,7 @@
         <v>75</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>282</v>
@@ -8523,7 +8523,7 @@
         <v>75</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>282</v>
@@ -8534,7 +8534,7 @@
         <v>75</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>282</v>
@@ -8545,7 +8545,7 @@
         <v>75</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>282</v>
@@ -8556,7 +8556,7 @@
         <v>75</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>282</v>
@@ -8567,7 +8567,7 @@
         <v>75</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>282</v>
@@ -8578,7 +8578,7 @@
         <v>75</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>282</v>
@@ -8589,7 +8589,7 @@
         <v>75</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>282</v>
@@ -8600,7 +8600,7 @@
         <v>75</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>282</v>
@@ -8611,7 +8611,7 @@
         <v>75</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>282</v>
@@ -8622,7 +8622,7 @@
         <v>75</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>282</v>
@@ -8633,7 +8633,7 @@
         <v>75</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>282</v>
@@ -8644,7 +8644,7 @@
         <v>75</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>282</v>
@@ -8655,7 +8655,7 @@
         <v>75</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>282</v>
@@ -8666,7 +8666,7 @@
         <v>75</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>282</v>
@@ -8677,7 +8677,7 @@
         <v>75</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>282</v>
@@ -8688,7 +8688,7 @@
         <v>75</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>282</v>
@@ -8699,7 +8699,7 @@
         <v>75</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>282</v>
@@ -8710,7 +8710,7 @@
         <v>75</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>282</v>
@@ -8721,7 +8721,7 @@
         <v>75</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>282</v>
@@ -8732,7 +8732,7 @@
         <v>75</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>282</v>
@@ -8743,7 +8743,7 @@
         <v>75</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>282</v>
@@ -8754,7 +8754,7 @@
         <v>75</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>282</v>
@@ -8765,7 +8765,7 @@
         <v>75</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>282</v>
@@ -8776,7 +8776,7 @@
         <v>75</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>282</v>
@@ -8787,7 +8787,7 @@
         <v>75</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>282</v>
@@ -8798,7 +8798,7 @@
         <v>75</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>282</v>
@@ -8809,7 +8809,7 @@
         <v>75</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>282</v>
@@ -8820,7 +8820,7 @@
         <v>75</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>282</v>
@@ -8831,7 +8831,7 @@
         <v>75</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>282</v>
@@ -8842,7 +8842,7 @@
         <v>75</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>282</v>
@@ -8853,7 +8853,7 @@
         <v>75</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>282</v>
@@ -8864,21 +8864,21 @@
         <v>75</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="179">
@@ -8886,10 +8886,10 @@
         <v>155</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180">
@@ -8897,7 +8897,7 @@
         <v>155</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>282</v>
@@ -8908,7 +8908,7 @@
         <v>155</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>282</v>
@@ -8919,7 +8919,7 @@
         <v>155</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>282</v>
@@ -8930,7 +8930,7 @@
         <v>155</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>282</v>
@@ -8941,7 +8941,7 @@
         <v>155</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>282</v>
@@ -8952,7 +8952,7 @@
         <v>155</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>282</v>
@@ -8963,7 +8963,7 @@
         <v>155</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>282</v>
@@ -8974,7 +8974,7 @@
         <v>155</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>282</v>
@@ -8985,7 +8985,7 @@
         <v>155</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>282</v>
@@ -8996,7 +8996,7 @@
         <v>155</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>282</v>
@@ -9007,7 +9007,7 @@
         <v>155</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>282</v>
@@ -9018,21 +9018,21 @@
         <v>155</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="193">
@@ -9040,10 +9040,10 @@
         <v>157</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194">
@@ -9051,7 +9051,7 @@
         <v>157</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>282</v>
@@ -9062,7 +9062,7 @@
         <v>157</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>282</v>
@@ -9073,7 +9073,7 @@
         <v>157</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>282</v>
@@ -9084,7 +9084,7 @@
         <v>157</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>282</v>
@@ -9095,7 +9095,7 @@
         <v>157</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>282</v>
@@ -9106,7 +9106,7 @@
         <v>157</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>282</v>
@@ -9117,7 +9117,7 @@
         <v>157</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>282</v>
@@ -9128,7 +9128,7 @@
         <v>157</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>282</v>
@@ -9139,7 +9139,7 @@
         <v>157</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>282</v>
@@ -9150,21 +9150,21 @@
         <v>157</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205">
@@ -9172,7 +9172,7 @@
         <v>159</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>264</v>
@@ -9183,7 +9183,7 @@
         <v>159</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>264</v>
@@ -9194,7 +9194,7 @@
         <v>159</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>264</v>
@@ -9205,7 +9205,7 @@
         <v>159</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>264</v>
@@ -9216,7 +9216,7 @@
         <v>159</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>264</v>
@@ -9227,7 +9227,7 @@
         <v>159</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>264</v>
@@ -9238,7 +9238,7 @@
         <v>159</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>264</v>
@@ -9249,7 +9249,7 @@
         <v>159</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>264</v>
@@ -9260,7 +9260,7 @@
         <v>159</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>264</v>
@@ -9271,7 +9271,7 @@
         <v>159</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>264</v>
@@ -9279,13 +9279,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="216">
@@ -9293,10 +9293,10 @@
         <v>172</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217">
@@ -9304,7 +9304,7 @@
         <v>172</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>282</v>
@@ -9315,7 +9315,7 @@
         <v>172</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>282</v>
@@ -9326,7 +9326,7 @@
         <v>172</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>282</v>
@@ -9337,7 +9337,7 @@
         <v>172</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>282</v>
@@ -9348,7 +9348,7 @@
         <v>172</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>282</v>
@@ -9359,7 +9359,7 @@
         <v>172</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>282</v>
@@ -9370,7 +9370,7 @@
         <v>172</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>282</v>
@@ -9381,7 +9381,7 @@
         <v>172</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>282</v>
@@ -9392,7 +9392,7 @@
         <v>172</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>282</v>
@@ -9403,7 +9403,7 @@
         <v>172</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>282</v>
@@ -9414,7 +9414,7 @@
         <v>172</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>282</v>
@@ -9425,21 +9425,21 @@
         <v>172</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="230">
@@ -9447,10 +9447,10 @@
         <v>180</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231">
@@ -9458,7 +9458,7 @@
         <v>180</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>282</v>
@@ -9469,7 +9469,7 @@
         <v>180</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>282</v>
@@ -9480,7 +9480,7 @@
         <v>180</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>282</v>
@@ -9491,7 +9491,7 @@
         <v>180</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>282</v>
@@ -9502,7 +9502,7 @@
         <v>180</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>282</v>
@@ -9513,7 +9513,7 @@
         <v>180</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>282</v>
@@ -9524,7 +9524,7 @@
         <v>180</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>282</v>
@@ -9535,7 +9535,7 @@
         <v>180</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>282</v>
@@ -9546,7 +9546,7 @@
         <v>180</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>282</v>
@@ -9557,7 +9557,7 @@
         <v>180</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>282</v>
@@ -9568,7 +9568,7 @@
         <v>180</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>282</v>
@@ -9579,7 +9579,7 @@
         <v>180</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>282</v>
@@ -9590,7 +9590,7 @@
         <v>180</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>282</v>
@@ -9601,9 +9601,20 @@
         <v>180</v>
       </c>
       <c r="B244" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B245" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C244" t="s" s="0">
+      <c r="C245" t="s" s="0">
         <v>290</v>
       </c>
     </row>
@@ -9672,7 +9683,7 @@
         <v>197</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -9686,7 +9697,7 @@
         <v>197</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -9728,7 +9739,7 @@
         <v>197</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -9742,7 +9753,7 @@
         <v>197</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -9756,7 +9767,7 @@
         <v>197</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -9798,7 +9809,7 @@
         <v>197</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -9812,7 +9823,7 @@
         <v>197</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -9840,7 +9851,7 @@
         <v>197</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -9854,7 +9865,7 @@
         <v>197</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -9862,7 +9873,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>197</v>
@@ -9882,7 +9893,7 @@
         <v>197</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -9896,7 +9907,7 @@
         <v>197</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -9904,13 +9915,13 @@
         <v>52</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>23</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
@@ -9918,13 +9929,13 @@
         <v>52</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -9938,7 +9949,7 @@
         <v>197</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -9966,7 +9977,7 @@
         <v>197</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -9988,7 +9999,7 @@
         <v>91</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>197</v>
@@ -10002,7 +10013,7 @@
         <v>91</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>197</v>
@@ -10016,13 +10027,13 @@
         <v>91</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -10030,13 +10041,13 @@
         <v>91</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -10058,7 +10069,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>197</v>
@@ -10072,13 +10083,13 @@
         <v>99</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>206</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -10086,7 +10097,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>197</v>
@@ -10100,7 +10111,7 @@
         <v>99</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>197</v>
@@ -10114,7 +10125,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>197</v>
@@ -10128,7 +10139,7 @@
         <v>99</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>197</v>
@@ -10148,7 +10159,7 @@
         <v>197</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -10156,7 +10167,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>197</v>
@@ -10170,13 +10181,13 @@
         <v>99</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -10184,13 +10195,13 @@
         <v>112</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -10198,7 +10209,7 @@
         <v>112</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>197</v>
@@ -10212,13 +10223,13 @@
         <v>112</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -10226,13 +10237,13 @@
         <v>112</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -10240,13 +10251,13 @@
         <v>112</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44">
@@ -10254,13 +10265,13 @@
         <v>112</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -10268,13 +10279,13 @@
         <v>116</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -10282,13 +10293,13 @@
         <v>116</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>35</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47">
@@ -10296,13 +10307,13 @@
         <v>116</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>206</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -10310,13 +10321,13 @@
         <v>116</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
@@ -10324,13 +10335,13 @@
         <v>116</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -10358,7 +10369,7 @@
         <v>197</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -10366,13 +10377,13 @@
         <v>116</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -10380,13 +10391,13 @@
         <v>116</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
@@ -10394,13 +10405,13 @@
         <v>116</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
@@ -10414,7 +10425,7 @@
         <v>197</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -10428,7 +10439,7 @@
         <v>197</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -10436,13 +10447,13 @@
         <v>118</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -10450,13 +10461,13 @@
         <v>118</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>15</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59">
@@ -10464,7 +10475,7 @@
         <v>118</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>197</v>
@@ -10492,13 +10503,13 @@
         <v>118</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -10506,7 +10517,7 @@
         <v>118</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>197</v>
@@ -10520,13 +10531,13 @@
         <v>124</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
@@ -10534,7 +10545,7 @@
         <v>124</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>197</v>
@@ -10548,13 +10559,13 @@
         <v>124</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66">
@@ -10562,13 +10573,13 @@
         <v>124</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
@@ -10576,13 +10587,13 @@
         <v>124</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>206</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -10590,13 +10601,13 @@
         <v>124</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -10604,13 +10615,13 @@
         <v>75</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -10618,13 +10629,13 @@
         <v>75</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
@@ -10632,13 +10643,13 @@
         <v>75</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -10652,7 +10663,7 @@
         <v>197</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -10660,13 +10671,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -10674,7 +10685,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>197</v>
@@ -10688,7 +10699,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>197</v>
@@ -10702,13 +10713,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -10736,7 +10747,7 @@
         <v>197</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
@@ -10744,13 +10755,13 @@
         <v>75</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>15</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
@@ -10758,7 +10769,7 @@
         <v>75</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>197</v>
@@ -10772,7 +10783,7 @@
         <v>75</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>197</v>
@@ -10786,13 +10797,13 @@
         <v>75</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>206</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
@@ -10800,13 +10811,13 @@
         <v>75</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -10814,13 +10825,13 @@
         <v>75</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -10828,7 +10839,7 @@
         <v>75</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>197</v>
@@ -10842,13 +10853,13 @@
         <v>75</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -10862,7 +10873,7 @@
         <v>197</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -10870,13 +10881,13 @@
         <v>155</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -10884,13 +10895,13 @@
         <v>155</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>206</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
@@ -10898,13 +10909,13 @@
         <v>155</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -10912,13 +10923,13 @@
         <v>155</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -10926,13 +10937,13 @@
         <v>155</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
@@ -10940,7 +10951,7 @@
         <v>155</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>197</v>
@@ -10954,13 +10965,13 @@
         <v>155</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>15</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
@@ -10968,7 +10979,7 @@
         <v>157</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>197</v>
@@ -10982,13 +10993,13 @@
         <v>157</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -10996,7 +11007,7 @@
         <v>157</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>197</v>
@@ -11010,13 +11021,13 @@
         <v>157</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>15</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99">
@@ -11024,13 +11035,13 @@
         <v>157</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
@@ -11066,13 +11077,13 @@
         <v>172</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -11080,13 +11091,13 @@
         <v>172</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
@@ -11094,13 +11105,13 @@
         <v>172</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
@@ -11108,13 +11119,13 @@
         <v>172</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
@@ -11122,13 +11133,13 @@
         <v>172</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
@@ -11150,13 +11161,13 @@
         <v>180</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>15</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
@@ -11164,13 +11175,13 @@
         <v>180</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -11178,13 +11189,13 @@
         <v>180</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -11192,13 +11203,13 @@
         <v>180</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
@@ -11206,13 +11217,13 @@
         <v>180</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -11220,13 +11231,13 @@
         <v>180</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
@@ -11234,13 +11245,13 @@
         <v>180</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -11248,13 +11259,13 @@
         <v>180</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>197</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -11588,7 +11599,7 @@
         <v>116</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>264</v>
@@ -11605,7 +11616,7 @@
         <v>116</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>264</v>
@@ -11622,7 +11633,7 @@
         <v>116</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>264</v>
@@ -11639,7 +11650,7 @@
         <v>116</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>264</v>
@@ -11690,7 +11701,7 @@
         <v>116</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>264</v>
@@ -11724,7 +11735,7 @@
         <v>116</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>264</v>
@@ -11741,7 +11752,7 @@
         <v>116</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>264</v>
@@ -11758,7 +11769,7 @@
         <v>116</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s" s="0">
         <v>264</v>
@@ -11775,7 +11786,7 @@
         <v>116</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>264</v>
@@ -11792,7 +11803,7 @@
         <v>116</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>264</v>
@@ -11809,7 +11820,7 @@
         <v>116</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s" s="0">
         <v>264</v>
@@ -11826,7 +11837,7 @@
         <v>116</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>264</v>
@@ -11843,7 +11854,7 @@
         <v>116</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>264</v>
@@ -11877,7 +11888,7 @@
         <v>116</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>264</v>
@@ -11894,7 +11905,7 @@
         <v>116</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>264</v>
@@ -11911,7 +11922,7 @@
         <v>116</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>264</v>
@@ -11928,7 +11939,7 @@
         <v>116</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s" s="0">
         <v>264</v>
@@ -11945,7 +11956,7 @@
         <v>116</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s" s="0">
         <v>264</v>
